--- a/src/main/resources/templates/3_phuong_an.xlsx
+++ b/src/main/resources/templates/3_phuong_an.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t xml:space="preserve">CỤC KỸ THUẬT PKKQ</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tổng cộng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">II- ĐỊnh mức vật tư</t>
@@ -996,9 +999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1503360</xdr:colOff>
+      <xdr:colOff>1503000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1008,7 +1011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="352440" y="1180800"/>
-          <a:ext cx="1493640" cy="274320"/>
+          <a:ext cx="1493280" cy="273960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,27 +1041,27 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="1" sqref="L:L K10"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.43255813953488"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.2418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1674418604651"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.4"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.8"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8"/>
-    <col collapsed="false" hidden="false" max="34" min="15" style="1" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.6"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="34" min="15" style="1" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="1" width="14.5209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1650,7 +1653,9 @@
       <c r="B16" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
@@ -1726,7 +1731,7 @@
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
       <c r="F18" s="68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
@@ -1767,12 +1772,12 @@
       <c r="G19" s="70"/>
       <c r="H19" s="71"/>
       <c r="I19" s="72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="73"/>
       <c r="K19" s="71"/>
       <c r="L19" s="72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="73"/>
       <c r="N19" s="74"/>
@@ -1802,40 +1807,40 @@
         <v>17</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="78" t="s">
+      <c r="L20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="77" t="s">
-        <v>33</v>
-      </c>
       <c r="M20" s="77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20" s="79" t="s">
         <v>21</v>
@@ -2188,7 +2193,7 @@
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="111"/>
       <c r="B30" s="112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="113"/>
       <c r="D30" s="113"/>
@@ -2226,7 +2231,7 @@
     <row r="31" customFormat="false" ht="40.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="114"/>
       <c r="B31" s="115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="115"/>
       <c r="D31" s="116"/>
@@ -2300,24 +2305,24 @@
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="118"/>
       <c r="B33" s="120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="119"/>
       <c r="D33" s="119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="119"/>
       <c r="F33" s="119"/>
       <c r="G33" s="119"/>
       <c r="H33" s="0"/>
       <c r="I33" s="119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J33" s="119"/>
       <c r="K33" s="119"/>
       <c r="L33" s="119"/>
       <c r="M33" s="119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N33" s="119"/>
       <c r="O33" s="12"/>
@@ -2344,24 +2349,24 @@
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="121"/>
       <c r="F34" s="121"/>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
       <c r="I34" s="122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J34" s="122"/>
       <c r="K34" s="0"/>
       <c r="L34" s="123"/>
       <c r="M34" s="123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N34" s="123"/>
       <c r="O34" s="12"/>

--- a/src/main/resources/templates/3_phuong_an.xlsx
+++ b/src/main/resources/templates/3_phuong_an.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="45">
   <si>
     <t xml:space="preserve">CỤC KỸ THUẬT PKKQ</t>
   </si>
@@ -191,7 +191,7 @@
     <numFmt numFmtId="171" formatCode="#"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,6 +287,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,6 +985,10 @@
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1005,9 +1014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1501560</xdr:colOff>
+      <xdr:colOff>1501200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1017,7 +1026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="352440" y="1180800"/>
-          <a:ext cx="1491840" cy="272520"/>
+          <a:ext cx="1491480" cy="272160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,21 +1053,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH38"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.43255813953488"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="34" min="8" style="1" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="1" width="16"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.4"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="34" min="8" style="1" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="1" width="16.4883720930233"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2557,6 +2566,288 @@
         <v>44</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:B1"/>
